--- a/battleworld/Excel/MotionSkill_技能表.xlsx
+++ b/battleworld/Excel/MotionSkill_技能表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="251">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1400,6 +1400,218 @@
   </si>
   <si>
     <t xml:space="preserve">焰能觉醒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">拳头怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">拳头怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">拳头怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单手剑怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单手剑怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单手剑怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">法杖怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">法杖怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">双手剑怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">双手剑怒气普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">拳头大招</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单手剑大招</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法杖大招</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双手剑大招</t>
   </si>
 </sst>
 </file>
@@ -1509,14 +1721,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K18" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,7 +1737,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="6.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.91"/>
@@ -5327,6 +5539,838 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/battleworld/Excel/MotionSkill_技能表.xlsx
+++ b/battleworld/Excel/MotionSkill_技能表.xlsx
@@ -1834,11 +1834,11 @@
   <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="E64" activeCellId="0" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/battleworld/Excel/MotionSkill_技能表.xlsx
+++ b/battleworld/Excel/MotionSkill_技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0E939-FF32-4DF5-84C5-FD09C17A0340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECDF2D-6723-4A07-B393-C604A6816BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1796,10 +1796,10 @@
   <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4530,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q46">
         <v>0</v>
